--- a/points_marquants/points_marquants_mars_25_clean.xlsx
+++ b/points_marquants/points_marquants_mars_25_clean.xlsx
@@ -753,7 +753,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7:47</t>
+          <t>07:47</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5:15</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>05:20</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3979,7 +3979,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
